--- a/Angles/Features.xlsx
+++ b/Angles/Features.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="130">
   <si>
     <t>exercice_name</t>
   </si>
@@ -4518,28 +4518,28 @@
         <v>65</v>
       </c>
       <c r="B6" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D6" s="1">
         <v>14.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>12.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>11.0</v>
-      </c>
       <c r="F6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="1">
         <v>6.0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>5.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -4593,28 +4593,28 @@
         <v>72</v>
       </c>
       <c r="B9" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D9" s="1">
         <v>28.0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>26.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>25.0</v>
-      </c>
       <c r="F9" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H9" s="1">
         <v>14.0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>13.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -4686,7 +4686,7 @@
         <v>7.0</v>
       </c>
       <c r="D12" s="1">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="E12" s="1">
         <v>8.0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>23.0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>24.0</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>15.0</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>16.0</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -6232,6 +6232,9 @@
       <c r="I2" s="1">
         <v>13.0</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -6260,6 +6263,9 @@
       </c>
       <c r="I3" s="1">
         <v>5.0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4">

--- a/Angles/Features.xlsx
+++ b/Angles/Features.xlsx
@@ -10,8 +10,13 @@
     <sheet state="visible" name="Parallelism" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Same_coordinate" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_AD785838_B734_4990_A8F1_1A524750883F_.wvu.FilterData">Exercices!$A$1:$F$217</definedName>
+  </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AD785838-B734-4990-A8F1-1A524750883F}" name="Filtre 1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
@@ -3852,7 +3857,7 @@
         <v>96</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>53</v>
@@ -3866,7 +3871,7 @@
         <v>96</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>54</v>
@@ -4350,6 +4355,15 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{AD785838-B734-4990-A8F1-1A524750883F}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$F$217">
+        <sortState ref="A1:F217">
+          <sortCondition ref="A1:A217"/>
+        </sortState>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
